--- a/Testcase_DA3.xlsx
+++ b/Testcase_DA3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7050" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
@@ -1739,13 +1739,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1833,13 +1826,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>Bước 1</t>
     </r>
     <r>
@@ -1987,7 +1973,7 @@
     </r>
   </si>
   <si>
-    <t>Tìm kiếm sản phẩm theo từ khóa</t>
+    <t>Tìm kiếm sản phẩm theo từ khóa chính xác</t>
   </si>
   <si>
     <t>Trang tìm kiếm đang mở</t>
@@ -2007,7 +1993,7 @@
 2. Nhấn nút "Tìm kiếm".</t>
   </si>
   <si>
-    <t>Hiển thị thông báo lỗi hoặc danh sách sản phẩm mặc định (tùy thiết kế hệ thống)</t>
+    <t xml:space="preserve">Hiển thị thông báo lỗi hoặc danh sách sản phẩm mặc định </t>
   </si>
   <si>
     <t>Tìm kiếm với ô từ khóa gần đúng</t>
@@ -2086,7 +2072,8 @@
     <t>Thêm sản phẩm vào danh sách yêu thích từ kết quả tìm kiếm</t>
   </si>
   <si>
-    <t>1. Nhấn vào biểu tượng "Yêu thích" (nếu chức năng có).</t>
+    <t>Bước 1:  Tìm kiếm một từ khóa bất kỳ.
+Bước 2:  Nhấn vào biểu tượng "Yêu thích" .</t>
   </si>
   <si>
     <t>Sản phẩm được thêm vào danh sách yêu thích</t>
@@ -3965,7 +3952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -4659,6 +4646,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -4886,7 +4886,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="63" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4898,34 +4898,34 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="68" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5011,7 +5011,7 @@
     </xf>
     <xf numFmtId="178" fontId="40" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5513,6 +5513,9 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5549,16 +5552,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5576,7 +5579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5588,7 +5591,7 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5597,7 +5600,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5606,16 +5609,16 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6294,81 +6297,81 @@
       <c r="I3" s="127"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="205" t="s">
+      <c r="C4" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="206" t="s">
+      <c r="D4" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="205" t="s">
+      <c r="E4" s="206" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="220"/>
+      <c r="F4" s="208"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="221"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="208">
+      <c r="A5" s="209">
         <f>COUNTIF(F:F,"Pass")</f>
         <v>10</v>
       </c>
-      <c r="B5" s="209">
+      <c r="B5" s="210">
         <f>COUNTIF(F:F,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="C5" s="209">
+      <c r="C5" s="210">
         <f>COUNTIF(F:F,"Untested")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="210">
+      <c r="D5" s="211">
         <f>COUNTIF(F:F,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="209">
+      <c r="E5" s="210">
         <f>SUM(A5:D5)</f>
         <v>10</v>
       </c>
-      <c r="F5" s="207"/>
-      <c r="G5" s="207"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="220"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="208"/>
+      <c r="H5" s="208"/>
+      <c r="I5" s="221"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="211" t="s">
+      <c r="A6" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="212" t="s">
+      <c r="C6" s="213" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="213" t="s">
+      <c r="D6" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="212"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="207"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="220"/>
+      <c r="E6" s="213"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
+      <c r="H6" s="208"/>
+      <c r="I6" s="221"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="220"/>
+      <c r="A7" s="215"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="217"/>
+      <c r="D7" s="218"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
     </row>
     <row r="8" ht="25.5" spans="1:10">
       <c r="A8" s="78" t="s">
@@ -6413,7 +6416,7 @@
       <c r="C9" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="188" t="s">
+      <c r="D9" s="189" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="155" t="s">
@@ -6444,7 +6447,7 @@
       <c r="C10" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="189" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="154" t="s">
@@ -6475,7 +6478,7 @@
       <c r="C11" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="189" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="154" t="s">
@@ -6506,7 +6509,7 @@
       <c r="C12" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="188" t="s">
+      <c r="D12" s="189" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="154" t="s">
@@ -6537,7 +6540,7 @@
       <c r="C13" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="188" t="s">
+      <c r="D13" s="189" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="154" t="s">
@@ -6568,7 +6571,7 @@
       <c r="C14" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="188" t="s">
+      <c r="D14" s="189" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="154" t="s">
@@ -6577,11 +6580,11 @@
       <c r="F14" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="191">
+      <c r="G14" s="192">
         <f ca="1" t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="H14" s="192" t="str">
+      <c r="H14" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
@@ -6599,7 +6602,7 @@
       <c r="C15" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="189" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="154" t="s">
@@ -6608,11 +6611,11 @@
       <c r="F15" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="191">
+      <c r="G15" s="192">
         <f ca="1" t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="H15" s="192" t="str">
+      <c r="H15" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
@@ -6630,7 +6633,7 @@
       <c r="C16" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="188" t="s">
+      <c r="D16" s="189" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="154" t="s">
@@ -6639,11 +6642,11 @@
       <c r="F16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="191">
+      <c r="G16" s="192">
         <f ca="1" t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="H16" s="192" t="str">
+      <c r="H16" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
@@ -6670,11 +6673,11 @@
       <c r="F17" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="191">
+      <c r="G17" s="192">
         <f ca="1" t="shared" si="0"/>
         <v>45782</v>
       </c>
-      <c r="H17" s="192" t="str">
+      <c r="H17" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
@@ -6740,7 +6743,7 @@
       <c r="E20" s="96"/>
       <c r="F20" s="150"/>
       <c r="G20" s="151"/>
-      <c r="H20" s="196"/>
+      <c r="H20" s="197"/>
       <c r="I20" s="139"/>
       <c r="J20" s="99"/>
     </row>
@@ -8631,8 +8634,8 @@
   <sheetPr/>
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8765,7 +8768,7 @@
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I7" s="200"/>
+      <c r="I7" s="201"/>
     </row>
     <row r="8" ht="76.5" spans="1:9">
       <c r="A8" s="100" t="str">
@@ -8795,7 +8798,7 @@
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I8" s="201"/>
+      <c r="I8" s="202"/>
     </row>
     <row r="9" ht="76.5" spans="1:9">
       <c r="A9" s="100" t="str">
@@ -8825,7 +8828,7 @@
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I9" s="201"/>
+      <c r="I9" s="202"/>
     </row>
     <row r="10" ht="76.5" spans="1:9">
       <c r="A10" s="100" t="str">
@@ -8855,7 +8858,7 @@
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I10" s="201"/>
+      <c r="I10" s="202"/>
     </row>
     <row r="11" ht="63.75" spans="1:9">
       <c r="A11" s="100" t="str">
@@ -8865,7 +8868,7 @@
       <c r="B11" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="190" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="143" t="s">
@@ -8874,18 +8877,18 @@
       <c r="E11" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="190" t="s">
+      <c r="F11" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="191">
+      <c r="G11" s="192">
         <f ca="1">TODAY()</f>
         <v>45782</v>
       </c>
-      <c r="H11" s="192" t="str">
+      <c r="H11" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I11" s="202"/>
+      <c r="I11" s="203"/>
     </row>
     <row r="12" ht="76.5" spans="1:9">
       <c r="A12" s="100" t="str">
@@ -8904,18 +8907,18 @@
       <c r="E12" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="190" t="s">
+      <c r="F12" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="191">
+      <c r="G12" s="192">
         <f ca="1">TODAY()</f>
         <v>45782</v>
       </c>
-      <c r="H12" s="192" t="str">
+      <c r="H12" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I12" s="203"/>
+      <c r="I12" s="204"/>
     </row>
     <row r="13" ht="76.5" spans="1:9">
       <c r="A13" s="100" t="str">
@@ -8934,18 +8937,18 @@
       <c r="E13" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="190" t="s">
+      <c r="F13" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="191">
+      <c r="G13" s="192">
         <f ca="1">TODAY()</f>
         <v>45782</v>
       </c>
-      <c r="H13" s="192" t="str">
+      <c r="H13" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I13" s="203"/>
+      <c r="I13" s="204"/>
     </row>
     <row r="14" ht="76.5" spans="1:9">
       <c r="A14" s="100" t="str">
@@ -8964,18 +8967,18 @@
       <c r="E14" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="190" t="s">
+      <c r="F14" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="191">
+      <c r="G14" s="192">
         <f ca="1">TODAY()</f>
         <v>45782</v>
       </c>
-      <c r="H14" s="192" t="str">
+      <c r="H14" s="193" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I14" s="203"/>
+      <c r="I14" s="204"/>
     </row>
     <row r="15" ht="63.75" spans="1:9">
       <c r="A15" s="100" t="str">
@@ -8985,7 +8988,7 @@
       <c r="B15" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="194" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="143" t="s">
@@ -9012,10 +9015,10 @@
         <f>IF(AND(E16=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E16:E16)+1,"##")&amp;"]")</f>
         <v>[TC-11]</v>
       </c>
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="195" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="194" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="153" t="s">
@@ -9038,14 +9041,14 @@
       <c r="I16" s="99"/>
     </row>
     <row r="17" ht="63.75" spans="1:9">
-      <c r="A17" s="195" t="str">
+      <c r="A17" s="196" t="str">
         <f>IF(AND(E17=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-6-COUNTBLANK($E17:E17)+1,"##")&amp;"]")</f>
         <v>[TC-12]</v>
       </c>
       <c r="B17" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="194" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="153" t="s">
@@ -9061,7 +9064,7 @@
         <f ca="1">TODAY()</f>
         <v>45782</v>
       </c>
-      <c r="H17" s="196" t="str">
+      <c r="H17" s="197" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
@@ -9725,7 +9728,7 @@
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I39" s="197"/>
+      <c r="I39" s="198"/>
     </row>
     <row r="40" ht="90" spans="1:9">
       <c r="A40" s="111" t="str">
@@ -9755,7 +9758,7 @@
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I40" s="197"/>
+      <c r="I40" s="198"/>
     </row>
     <row r="41" ht="75" spans="1:9">
       <c r="A41" s="111" t="str">
@@ -9785,7 +9788,7 @@
         <f t="shared" si="2"/>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I41" s="197"/>
+      <c r="I41" s="198"/>
     </row>
     <row r="42" ht="90" spans="1:9">
       <c r="A42" s="111" t="str">
@@ -9815,39 +9818,39 @@
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
-      <c r="I42" s="197"/>
+      <c r="I42" s="198"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="197"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="197"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="197"/>
-      <c r="G43" s="197"/>
+      <c r="A43" s="198"/>
+      <c r="B43" s="198"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
       <c r="H43" s="112"/>
-      <c r="I43" s="197"/>
+      <c r="I43" s="198"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="197"/>
-      <c r="B44" s="197"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="197"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="197"/>
-      <c r="G44" s="197"/>
+      <c r="A44" s="198"/>
+      <c r="B44" s="198"/>
+      <c r="C44" s="198"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="198"/>
+      <c r="G44" s="198"/>
       <c r="H44" s="112"/>
-      <c r="I44" s="197"/>
+      <c r="I44" s="198"/>
     </row>
     <row r="45" spans="7:8">
-      <c r="G45" s="198"/>
+      <c r="G45" s="199"/>
       <c r="H45" s="118"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="199"/>
+      <c r="H46" s="200"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="199"/>
+      <c r="H47" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9912,8 +9915,8 @@
   <sheetPr/>
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -10009,7 +10012,7 @@
         <f>IF(AND(E5=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-5-COUNTBLANK($E5:E5)+1,"##")&amp;"]")</f>
         <v>[TC-1]</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="184" t="s">
         <v>142</v>
       </c>
       <c r="C5" s="142" t="s">
@@ -10022,7 +10025,7 @@
         <v>145</v>
       </c>
       <c r="F5" s="112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="111">
         <f ca="1" t="shared" ref="G5:G7" si="0">TODAY()</f>
@@ -10046,7 +10049,7 @@
       <c r="C6" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="184" t="s">
+      <c r="D6" s="185" t="s">
         <v>147</v>
       </c>
       <c r="E6" s="148" t="s">
@@ -10071,10 +10074,10 @@
         <f>IF(AND(E7=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-5-COUNTBLANK($E7:E7)+1,"##")&amp;"]")</f>
         <v>[TC-3]</v>
       </c>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="184" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="186" t="s">
         <v>143</v>
       </c>
       <c r="D7" s="153" t="s">
@@ -10102,10 +10105,10 @@
         <f>IF(AND(E8=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-5-COUNTBLANK($E8:E8)+1,"##")&amp;"]")</f>
         <v>[TC-4]</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="184" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="185" t="s">
+      <c r="C8" s="186" t="s">
         <v>143</v>
       </c>
       <c r="D8" s="153" t="s">
@@ -10133,10 +10136,10 @@
         <f>IF(AND(E9=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-5-COUNTBLANK($E9:E9)+1,"##")&amp;"]")</f>
         <v>[TC-5]</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="184" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="186" t="s">
         <v>143</v>
       </c>
       <c r="D9" s="153" t="s">
@@ -10164,10 +10167,10 @@
         <f>IF(AND(E10=""),"","["&amp;TEXT($B$1,"##")&amp;"-"&amp;TEXT(ROW()-5-COUNTBLANK($E10:E10)+1,"##")&amp;"]")</f>
         <v>[TC-6]</v>
       </c>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="187" t="s">
+      <c r="C10" s="188" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="153" t="s">
@@ -10194,7 +10197,7 @@
       <c r="A11" s="81"/>
       <c r="B11" s="154"/>
       <c r="C11" s="154"/>
-      <c r="D11" s="188"/>
+      <c r="D11" s="189"/>
       <c r="E11" s="154"/>
       <c r="F11" s="81"/>
       <c r="G11" s="86"/>
@@ -10206,7 +10209,7 @@
       <c r="A12" s="81"/>
       <c r="B12" s="154"/>
       <c r="C12" s="154"/>
-      <c r="D12" s="188"/>
+      <c r="D12" s="189"/>
       <c r="E12" s="154"/>
       <c r="F12" s="81"/>
       <c r="G12" s="86"/>
@@ -10972,8 +10975,8 @@
   <sheetPr/>
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -11429,7 +11432,7 @@
         <f ca="1">TODAY()</f>
         <v>45782</v>
       </c>
-      <c r="H16" s="117" t="str">
+      <c r="H16" s="183" t="str">
         <f>$B$3</f>
         <v>Nguyễn Thị Bích Ngọc</v>
       </c>
